--- a/Supplementary_Tables/Table S1.xlsx
+++ b/Supplementary_Tables/Table S1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skn/Dropbox/Diabetes Submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skn/Dropbox/Diabetes_FinalSubmission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{21EE6B5D-2B7E-CC4F-95E3-8E9DA60215BE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CC7E13B6-EE26-434C-ADD7-2A1C1C8CD79A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14900" yWindow="3380" windowWidth="37600" windowHeight="21320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13000" yWindow="460" windowWidth="35040" windowHeight="26720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="99">
   <si>
     <t>Table S1: Human islet donor demographic characteristics and islet metadata</t>
   </si>
@@ -391,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -421,10 +421,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -438,6 +434,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,49 +717,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="19" style="5" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33.83203125" style="5" customWidth="1"/>
-    <col min="19" max="19" width="16.1640625" style="5" customWidth="1"/>
-    <col min="20" max="20" width="14" style="5" customWidth="1"/>
-    <col min="21" max="21" width="13" style="5" customWidth="1"/>
-    <col min="22" max="22" width="14.6640625" style="5" customWidth="1"/>
-    <col min="23" max="23" width="34.1640625" style="5" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.83203125" style="5" customWidth="1"/>
+    <col min="18" max="18" width="16.1640625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="14" style="5" customWidth="1"/>
+    <col min="20" max="20" width="13" style="5" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" style="5" customWidth="1"/>
+    <col min="22" max="22" width="34.1640625" style="5" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="10" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -783,37 +777,34 @@
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="L2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="M2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="N2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="P2" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -835,38 +826,35 @@
       <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>16</v>
+      <c r="H3" s="4">
+        <v>59</v>
       </c>
       <c r="I3" s="4">
-        <v>59</v>
-      </c>
-      <c r="J3" s="4">
         <v>21.5</v>
       </c>
+      <c r="J3" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>95</v>
+        <v>95</v>
+      </c>
+      <c r="N3" s="4">
+        <v>97</v>
       </c>
       <c r="O3" s="4">
-        <v>97</v>
-      </c>
-      <c r="P3" s="4">
         <v>85</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -888,38 +876,35 @@
       <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>26</v>
+      <c r="H4" s="4">
+        <v>34</v>
       </c>
       <c r="I4" s="4">
-        <v>34</v>
-      </c>
-      <c r="J4" s="4">
         <v>27.49</v>
       </c>
+      <c r="J4" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="N4" s="4">
+        <v>95</v>
+      </c>
       <c r="O4" s="4">
-        <v>95</v>
-      </c>
-      <c r="P4" s="4">
         <v>85</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -941,38 +926,35 @@
       <c r="G5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>30</v>
+      <c r="H5" s="4">
+        <v>52</v>
       </c>
       <c r="I5" s="4">
-        <v>52</v>
-      </c>
-      <c r="J5" s="4">
         <v>22.46</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="K5" s="4">
+        <v>5.3</v>
+      </c>
       <c r="L5" s="4">
-        <v>5.3</v>
-      </c>
-      <c r="M5" s="4">
         <v>34</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="N5" s="4">
+        <v>95</v>
+      </c>
       <c r="O5" s="4">
-        <v>95</v>
-      </c>
-      <c r="P5" s="4">
         <v>80</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -994,38 +976,35 @@
       <c r="G6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>35</v>
+      <c r="H6" s="4">
+        <v>23</v>
       </c>
       <c r="I6" s="4">
+        <v>21.5</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="4">
-        <v>21.5</v>
-      </c>
       <c r="K6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="N6" s="4">
+        <v>95</v>
+      </c>
       <c r="O6" s="4">
         <v>95</v>
       </c>
-      <c r="P6" s="4">
-        <v>95</v>
-      </c>
-      <c r="Q6" s="5" t="s">
+      <c r="P6" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -1047,38 +1026,35 @@
       <c r="G7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>40</v>
+      <c r="H7" s="4">
+        <v>32</v>
       </c>
       <c r="I7" s="4">
+        <v>19</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L7" s="4">
         <v>32</v>
       </c>
-      <c r="J7" s="4">
-        <v>19</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="M7" s="4">
-        <v>32</v>
-      </c>
-      <c r="N7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="O7" s="4">
-        <v>95</v>
-      </c>
-      <c r="P7" s="4" t="s">
+      <c r="N7" s="4">
+        <v>95</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="P7" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>44</v>
       </c>
@@ -1100,38 +1076,35 @@
       <c r="G8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>44</v>
+      <c r="H8" s="4">
+        <v>66</v>
       </c>
       <c r="I8" s="4">
-        <v>66</v>
-      </c>
-      <c r="J8" s="4">
         <v>20.3</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="K8" s="7">
+        <v>5</v>
+      </c>
       <c r="L8" s="7">
-        <v>5</v>
-      </c>
-      <c r="M8" s="7">
         <v>31</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="N8" s="4">
+        <v>95</v>
+      </c>
       <c r="O8" s="4">
-        <v>95</v>
-      </c>
-      <c r="P8" s="4">
         <v>90</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>47</v>
       </c>
@@ -1153,38 +1126,35 @@
       <c r="G9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>47</v>
+      <c r="H9" s="4">
+        <v>50</v>
       </c>
       <c r="I9" s="4">
-        <v>50</v>
-      </c>
-      <c r="J9" s="4">
         <v>28.5</v>
       </c>
+      <c r="J9" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K9" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="N9" s="4">
+        <v>95</v>
+      </c>
       <c r="O9" s="4">
-        <v>95</v>
-      </c>
-      <c r="P9" s="4">
         <v>90</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="P9" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>51</v>
       </c>
@@ -1206,38 +1176,35 @@
       <c r="G10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>51</v>
+      <c r="H10" s="4">
+        <v>19</v>
       </c>
       <c r="I10" s="4">
-        <v>19</v>
-      </c>
-      <c r="J10" s="4">
         <v>20</v>
       </c>
+      <c r="J10" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K10" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="N10" s="4">
+        <v>92</v>
+      </c>
       <c r="O10" s="4">
-        <v>92</v>
-      </c>
-      <c r="P10" s="4">
-        <v>95</v>
-      </c>
-      <c r="Q10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="P10" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>54</v>
       </c>
@@ -1259,38 +1226,35 @@
       <c r="G11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>54</v>
+      <c r="H11" s="4">
+        <v>53</v>
       </c>
       <c r="I11" s="4">
-        <v>53</v>
-      </c>
-      <c r="J11" s="4">
         <v>22</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="K11" s="4">
+        <v>5.4</v>
+      </c>
       <c r="L11" s="4">
-        <v>5.4</v>
-      </c>
-      <c r="M11" s="4">
         <v>36</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="M11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="4">
         <v>95</v>
       </c>
       <c r="O11" s="4">
         <v>95</v>
       </c>
-      <c r="P11" s="4">
-        <v>95</v>
-      </c>
-      <c r="Q11" s="5" t="s">
+      <c r="P11" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>57</v>
       </c>
@@ -1312,38 +1276,35 @@
       <c r="G12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>57</v>
+      <c r="H12" s="4">
+        <v>29</v>
       </c>
       <c r="I12" s="4">
-        <v>29</v>
-      </c>
-      <c r="J12" s="4">
         <v>23</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="K12" s="4">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="L12" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="M12" s="4">
         <v>32</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="M12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="N12" s="4">
         <v>95</v>
       </c>
       <c r="O12" s="4">
-        <v>95</v>
-      </c>
-      <c r="P12" s="4">
         <v>85</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="P12" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>60</v>
       </c>
@@ -1365,38 +1326,35 @@
       <c r="G13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>60</v>
+      <c r="H13" s="4">
+        <v>38</v>
       </c>
       <c r="I13" s="4">
-        <v>38</v>
-      </c>
-      <c r="J13" s="4">
         <v>25.3</v>
       </c>
+      <c r="J13" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K13" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>95</v>
+        <v>95</v>
+      </c>
+      <c r="N13" s="4">
+        <v>90</v>
       </c>
       <c r="O13" s="4">
-        <v>90</v>
-      </c>
-      <c r="P13" s="4">
         <v>93</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="P13" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>63</v>
       </c>
@@ -1418,38 +1376,35 @@
       <c r="G14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>63</v>
+      <c r="H14" s="4">
+        <v>25</v>
       </c>
       <c r="I14" s="4">
-        <v>25</v>
-      </c>
-      <c r="J14" s="4">
         <v>22.8</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="K14" s="4">
+        <v>5.5</v>
+      </c>
       <c r="L14" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="M14" s="4">
         <v>37</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="M14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="N14" s="4">
         <v>95</v>
       </c>
       <c r="O14" s="4">
-        <v>95</v>
-      </c>
-      <c r="P14" s="4">
         <v>90</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="P14" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>66</v>
       </c>
@@ -1471,38 +1426,35 @@
       <c r="G15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>66</v>
+      <c r="H15" s="4">
+        <v>55</v>
       </c>
       <c r="I15" s="4">
-        <v>55</v>
-      </c>
-      <c r="J15" s="4">
         <v>29.84</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="K15" s="4">
+        <v>5.2</v>
+      </c>
       <c r="L15" s="4">
-        <v>5.2</v>
-      </c>
-      <c r="M15" s="4">
         <v>33</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="M15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="N15" s="4">
         <v>95</v>
       </c>
       <c r="O15" s="4">
-        <v>95</v>
-      </c>
-      <c r="P15" s="4">
         <v>90</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="P15" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>69</v>
       </c>
@@ -1524,38 +1476,35 @@
       <c r="G16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>69</v>
+      <c r="H16" s="4">
+        <v>56</v>
       </c>
       <c r="I16" s="4">
-        <v>56</v>
-      </c>
-      <c r="J16" s="4">
         <v>26.6</v>
       </c>
+      <c r="J16" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K16" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="N16" s="4">
         <v>95</v>
       </c>
       <c r="O16" s="4">
-        <v>95</v>
-      </c>
-      <c r="P16" s="4">
         <v>90</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="P16" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>72</v>
       </c>
@@ -1577,38 +1526,35 @@
       <c r="G17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>72</v>
+      <c r="H17" s="4">
+        <v>51</v>
       </c>
       <c r="I17" s="4">
-        <v>51</v>
-      </c>
-      <c r="J17" s="4">
         <v>35.799999999999997</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="K17" s="9">
+        <v>5.3</v>
+      </c>
       <c r="L17" s="9">
-        <v>5.3</v>
-      </c>
-      <c r="M17" s="9">
         <v>34</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="N17" s="4">
+        <v>97</v>
+      </c>
       <c r="O17" s="4">
-        <v>97</v>
-      </c>
-      <c r="P17" s="4">
         <v>80</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="P17" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>77</v>
       </c>
@@ -1630,38 +1576,35 @@
       <c r="G18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>77</v>
+      <c r="H18" s="4">
+        <v>55</v>
       </c>
       <c r="I18" s="4">
-        <v>55</v>
-      </c>
-      <c r="J18" s="4">
         <v>29.8</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="K18" s="4">
+        <v>7.4</v>
+      </c>
       <c r="L18" s="4">
-        <v>7.4</v>
-      </c>
-      <c r="M18" s="4">
         <v>57</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="M18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="N18" s="4">
         <v>95</v>
       </c>
       <c r="O18" s="4">
-        <v>95</v>
-      </c>
-      <c r="P18" s="4">
         <v>90</v>
       </c>
-      <c r="Q18" s="5" t="s">
+      <c r="P18" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>80</v>
       </c>
@@ -1683,38 +1626,35 @@
       <c r="G19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>80</v>
+      <c r="H19" s="4">
+        <v>42</v>
       </c>
       <c r="I19" s="4">
-        <v>42</v>
-      </c>
-      <c r="J19" s="4">
         <v>43</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="K19" s="4">
+        <v>6.5</v>
+      </c>
       <c r="L19" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="M19" s="4">
         <v>48</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="M19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="N19" s="4">
         <v>95</v>
       </c>
       <c r="O19" s="4">
         <v>95</v>
       </c>
-      <c r="P19" s="4">
-        <v>95</v>
-      </c>
-      <c r="Q19" s="5" t="s">
+      <c r="P19" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>83</v>
       </c>
@@ -1736,38 +1676,35 @@
       <c r="G20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>83</v>
+      <c r="H20" s="4">
+        <v>48</v>
       </c>
       <c r="I20" s="4">
-        <v>48</v>
-      </c>
-      <c r="J20" s="4">
         <v>43.7</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="K20" s="4">
+        <v>6.6</v>
+      </c>
       <c r="L20" s="4">
-        <v>6.6</v>
-      </c>
-      <c r="M20" s="4">
         <v>49</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="M20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="N20" s="4">
         <v>95</v>
       </c>
       <c r="O20" s="4">
         <v>95</v>
       </c>
-      <c r="P20" s="4">
-        <v>95</v>
-      </c>
-      <c r="Q20" s="5" t="s">
+      <c r="P20" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>86</v>
       </c>
@@ -1789,55 +1726,46 @@
       <c r="G21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>86</v>
+      <c r="H21" s="4">
+        <v>51</v>
       </c>
       <c r="I21" s="4">
-        <v>51</v>
-      </c>
-      <c r="J21" s="4">
         <v>24.4</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="K21" s="4">
+        <v>6.9</v>
+      </c>
       <c r="L21" s="4">
-        <v>6.9</v>
-      </c>
-      <c r="M21" s="4">
         <v>52</v>
       </c>
-      <c r="N21" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="O21" s="4">
-        <v>95</v>
-      </c>
-      <c r="P21" s="4" t="s">
+      <c r="M21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="N21" s="4">
+        <v>95</v>
+      </c>
+      <c r="O21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q21" s="5" t="s">
+      <c r="P21" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+    </row>
+    <row r="24" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H24" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="26" spans="1:17" ht="64" x14ac:dyDescent="0.2">
+      <c r="J24" s="5"/>
+    </row>
+    <row r="26" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>12</v>
@@ -1851,11 +1779,11 @@
       <c r="E26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>8</v>
       </c>
@@ -1875,7 +1803,7 @@
         <v>8.2970000000000006E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>7</v>
       </c>
@@ -1895,8 +1823,8 @@
         <v>0.6431</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="48" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="6">
@@ -1916,6 +1844,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
